--- a/Vaccination/Dataset(National daily)/Daily national Vaccination(Aggregated).xlsx
+++ b/Vaccination/Dataset(National daily)/Daily national Vaccination(Aggregated).xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessiezhou/Documents/Study/Year 4/Semester1/COMP5048/Assignment 2/COMP5048_ASM2/Vaccination/Dataset(National daily)/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A61339-7029-9C46-B74A-35463D142D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Measure Name</t>
+  </si>
+  <si>
+    <t>18-october-2021</t>
+  </si>
+  <si>
+    <t>17-october-2021</t>
   </si>
   <si>
     <t>16-october-2021</t>
@@ -1126,8 +1126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,12 +1179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1193,14 +1190,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1247,7 +1236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1279,27 +1268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1331,24 +1302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1524,162 +1477,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
-        <v>44487</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44486</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>32653925</v>
@@ -1814,12 +1761,12 @@
         <v>20855353</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>159806</v>
@@ -1954,12 +1901,12 @@
         <v>213595</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>17484082</v>
@@ -2094,12 +2041,12 @@
         <v>12938761</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>14089671</v>
@@ -2234,12 +2181,12 @@
         <v>7879487</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>20619959</v>
@@ -2374,12 +2321,12 @@
         <v>20619959</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>808136</v>
@@ -2514,12 +2461,12 @@
         <v>490820</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>11699455</v>
@@ -2654,12 +2601,12 @@
         <v>7469406</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>296300</v>
@@ -2794,12 +2741,12 @@
         <v>220682</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>5565755</v>
@@ -2934,12 +2881,12 @@
         <v>3667531</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>1981978</v>
@@ -3074,12 +3021,12 @@
         <v>1330093</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>683857</v>
@@ -3214,12 +3161,12 @@
         <v>475347</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>8793444</v>
@@ -3354,12 +3301,12 @@
         <v>5330721</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>2825000</v>
@@ -3494,12 +3441,12 @@
         <v>1870753</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>4947</v>
@@ -3634,12 +3581,12 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>41117</v>
@@ -3774,12 +3721,12 @@
         <v>94698</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>588</v>
@@ -3914,12 +3861,12 @@
         <v>962</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>27101</v>
@@ -4054,12 +4001,12 @@
         <v>31068</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>9015</v>
@@ -4194,12 +4141,12 @@
         <v>9352</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>3647</v>
@@ -4334,12 +4281,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>55839</v>
@@ -4474,12 +4421,12 @@
         <v>51561</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>17552</v>
@@ -4614,12 +4561,12 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>13590968</v>
@@ -4754,12 +4701,12 @@
         <v>8794903</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>399316</v>
@@ -4894,12 +4841,12 @@
         <v>225878</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>3950218</v>
@@ -5034,12 +4981,12 @@
         <v>2755186</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>178864</v>
@@ -5174,12 +5121,12 @@
         <v>132430</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>2260662</v>
@@ -5314,12 +5261,12 @@
         <v>1430604</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>927164</v>
@@ -5454,12 +5401,12 @@
         <v>584054</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>380236</v>
@@ -5594,12 +5541,12 @@
         <v>253889</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>4123213</v>
@@ -5734,12 +5681,12 @@
         <v>2525987</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>1371295</v>
@@ -5874,12 +5821,12 @@
         <v>886875</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>101794</v>
@@ -6014,12 +5961,12 @@
         <v>124958</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>3191</v>
@@ -6154,12 +6101,12 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>25259</v>
@@ -6294,12 +6241,12 @@
         <v>56625</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>561</v>
@@ -6434,12 +6381,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>18103</v>
@@ -6574,12 +6521,12 @@
         <v>19767</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>7063</v>
@@ -6714,12 +6661,12 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>3170</v>
@@ -6854,12 +6801,12 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>31676</v>
@@ -6994,12 +6941,12 @@
         <v>27401</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>12771</v>
@@ -7134,12 +7081,12 @@
         <v>10466</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>19062957</v>
@@ -7274,12 +7221,12 @@
         <v>12060450</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>408820</v>
@@ -7414,12 +7361,12 @@
         <v>264942</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>7749237</v>
@@ -7554,12 +7501,12 @@
         <v>4714220</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>117436</v>
@@ -7694,12 +7641,12 @@
         <v>88252</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>3305093</v>
@@ -7834,12 +7781,12 @@
         <v>2236927</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>1054814</v>
@@ -7974,12 +7921,12 @@
         <v>746039</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>303621</v>
@@ -8114,12 +8061,12 @@
         <v>221458</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>4670231</v>
@@ -8254,12 +8201,12 @@
         <v>2804734</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>1453705</v>
@@ -8394,12 +8341,12 @@
         <v>983878</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>58012</v>
@@ -8534,12 +8481,12 @@
         <v>88637</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>1756</v>
@@ -8674,12 +8621,12 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>15858</v>
@@ -8814,12 +8761,12 @@
         <v>38073</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>27</v>
@@ -8954,12 +8901,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>8998</v>
@@ -9094,12 +9041,12 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>1952</v>
@@ -9234,12 +9181,12 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>477</v>
@@ -9374,12 +9321,12 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>24163</v>
@@ -9514,12 +9461,12 @@
         <v>24160</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>4781</v>
@@ -9654,12 +9601,12 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>17978560</v>
@@ -9794,12 +9741,12 @@
         <v>11261459</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60">
         <v>1084397</v>
@@ -9934,12 +9881,12 @@
         <v>83164</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C61">
         <v>8144576</v>
@@ -10074,12 +10021,12 @@
         <v>798991</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C62">
         <v>6990762</v>
@@ -10214,12 +10161,12 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C63">
         <v>8749703</v>
@@ -10354,12 +10301,12 @@
         <v>8749703</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C64">
         <v>2860574</v>
@@ -10494,12 +10441,12 @@
         <v>7095428</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>2499561</v>
@@ -10634,12 +10581,12 @@
         <v>4940518</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>2934706</v>
@@ -10774,12 +10721,12 @@
         <v>2934706</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C67">
         <v>344037</v>
@@ -10914,12 +10861,12 @@
         <v>344037</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C68">
         <v>6565651</v>
@@ -11054,12 +11001,12 @@
         <v>6565651</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C69">
         <v>190571</v>
@@ -11194,12 +11141,12 @@
         <v>190571</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>4112707</v>
@@ -11334,12 +11281,12 @@
         <v>4112707</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C71">
         <v>1440400</v>
@@ -11474,12 +11421,12 @@
         <v>1440400</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C72">
         <v>440172</v>
@@ -11614,12 +11561,12 @@
         <v>440172</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C73">
         <v>5407574</v>
@@ -11754,12 +11701,12 @@
         <v>5407574</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C74">
         <v>2114978</v>
@@ -11894,12 +11841,12 @@
         <v>2114978</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C75">
         <v>127802</v>
@@ -12034,12 +11981,12 @@
         <v>127802</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C76">
         <v>2807793</v>
@@ -12174,12 +12121,12 @@
         <v>2807793</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77">
         <v>62280</v>
@@ -12314,12 +12261,12 @@
         <v>62280</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C78">
         <v>1758855</v>
@@ -12454,12 +12401,12 @@
         <v>1758855</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C79">
         <v>674384</v>
@@ -12594,12 +12541,12 @@
         <v>674384</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C80">
         <v>220036</v>
@@ -12734,12 +12681,12 @@
         <v>220036</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C81">
         <v>2211211</v>
@@ -12874,12 +12821,12 @@
         <v>2211211</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C82">
         <v>885370</v>
@@ -13014,12 +12961,12 @@
         <v>885370</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C83">
         <v>39946</v>
@@ -13154,12 +13101,12 @@
         <v>39946</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84">
         <v>962606</v>
@@ -13294,12 +13241,12 @@
         <v>962606</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C85">
         <v>12343</v>
@@ -13434,12 +13381,12 @@
         <v>12343</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C86">
         <v>577767</v>
@@ -13574,12 +13521,12 @@
         <v>577767</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C87">
         <v>240514</v>
@@ -13714,12 +13661,12 @@
         <v>240514</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C88">
         <v>77155</v>
@@ -13854,12 +13801,12 @@
         <v>77155</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C89">
         <v>743519</v>
@@ -13994,12 +13941,12 @@
         <v>743519</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C90">
         <v>280281</v>
@@ -14134,12 +14081,12 @@
         <v>280281</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C91">
         <v>335931</v>
@@ -14274,12 +14221,12 @@
         <v>237183</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C92">
         <v>6046775</v>
@@ -14414,12 +14361,12 @@
         <v>4832574</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C93">
         <v>134761</v>
@@ -14554,12 +14501,12 @@
         <v>109429</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C94">
         <v>2980343</v>
@@ -14694,12 +14641,12 @@
         <v>2184434</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C95">
         <v>1097746</v>
@@ -14834,12 +14781,12 @@
         <v>796641</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <v>368680</v>
@@ -14974,12 +14921,12 @@
         <v>275833</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C97">
         <v>4782938</v>
@@ -15114,12 +15061,12 @@
         <v>3262213</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C98">
         <v>1553253</v>
@@ -15254,12 +15201,12 @@
         <v>1129602</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C99">
         <v>277449</v>
@@ -15394,12 +15341,12 @@
         <v>157834</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C100">
         <v>5302589</v>
@@ -15534,12 +15481,12 @@
         <v>2679205</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C101">
         <v>112520</v>
@@ -15674,12 +15621,12 @@
         <v>76863</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C102">
         <v>2340041</v>
@@ -15814,12 +15761,12 @@
         <v>1419324</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C103">
         <v>846171</v>
@@ -15954,12 +15901,12 @@
         <v>534332</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C104">
         <v>303013</v>
@@ -16094,12 +16041,12 @@
         <v>199605</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C105">
         <v>3608292</v>
@@ -16234,12 +16181,12 @@
         <v>2033407</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C106">
         <v>1183943</v>
@@ -16374,12 +16321,12 @@
         <v>723424</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C107">
         <v>131541</v>
@@ -16514,12 +16461,12 @@
         <v>121028</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C108">
         <v>2717750</v>
@@ -16654,12 +16601,12 @@
         <v>2413081</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C109">
         <v>49946</v>
@@ -16794,12 +16741,12 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C110">
         <v>1531704</v>
@@ -16934,12 +16881,12 @@
         <v>1330633</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C111">
         <v>595407</v>
@@ -17074,12 +17021,12 @@
         <v>511969</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C112">
         <v>201315</v>
@@ -17214,12 +17161,12 @@
         <v>177422</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C113">
         <v>2091608</v>
@@ -17354,12 +17301,12 @@
         <v>1795453</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C114">
         <v>775304</v>
@@ -17494,12 +17441,12 @@
         <v>658309</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C115">
         <v>119165</v>
@@ -17634,12 +17581,12 @@
         <v>89085</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C116">
         <v>2455010</v>
@@ -17774,12 +17721,12 @@
         <v>1635222</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C117">
         <v>43310</v>
@@ -17914,12 +17861,12 @@
         <v>32273</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C118">
         <v>1281074</v>
@@ -18054,12 +18001,12 @@
         <v>923571</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C119">
         <v>485229</v>
@@ -18194,12 +18141,12 @@
         <v>347140</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C120">
         <v>173569</v>
@@ -18334,12 +18281,12 @@
         <v>133716</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C121">
         <v>1765917</v>
@@ -18474,12 +18421,12 @@
         <v>1288570</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C122">
         <v>631261</v>
@@ -18614,12 +18561,12 @@
         <v>465034</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C123">
         <v>42749</v>
@@ -18754,12 +18701,12 @@
         <v>40352</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C124">
         <v>957594</v>
@@ -18894,12 +18841,12 @@
         <v>881387</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C125">
         <v>10632</v>
@@ -19034,12 +18981,12 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C126">
         <v>543168</v>
@@ -19174,12 +19121,12 @@
         <v>501563</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C127">
         <v>227696</v>
@@ -19314,12 +19261,12 @@
         <v>205718</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C128">
         <v>74801</v>
@@ -19454,12 +19401,12 @@
         <v>69162</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C129">
         <v>719899</v>
@@ -19594,12 +19541,12 @@
         <v>646494</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>263872</v>
@@ -19734,12 +19681,12 @@
         <v>236021</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C131">
         <v>39040</v>
@@ -19874,12 +19821,12 @@
         <v>31802</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C132">
         <v>870279</v>
@@ -20014,12 +19961,12 @@
         <v>651833</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C133">
         <v>9241</v>
@@ -20154,12 +20101,12 @@
         <v>7454</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C134">
         <v>470579</v>
@@ -20294,12 +20241,12 @@
         <v>378301</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C135">
         <v>189001</v>
@@ -20434,12 +20381,12 @@
         <v>147331</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C136">
         <v>65035</v>
@@ -20574,12 +20521,12 @@
         <v>54443</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C137">
         <v>620742</v>
@@ -20714,12 +20661,12 @@
         <v>491227</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C138">
         <v>219789</v>
@@ -20854,12 +20801,12 @@
         <v>177974</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C139">
         <v>850720</v>
@@ -20994,12 +20941,12 @@
         <v>324064</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C140">
         <v>1232187</v>
@@ -21134,12 +21081,12 @@
         <v>650415</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C141">
         <v>1419608</v>
@@ -21274,12 +21221,12 @@
         <v>799705</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C142">
         <v>1504762</v>
@@ -21414,12 +21361,12 @@
         <v>908173</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C143">
         <v>1524434</v>
@@ -21554,12 +21501,12 @@
         <v>967793</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C144">
         <v>1404580</v>
@@ -21694,12 +21641,12 @@
         <v>1079471</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C145">
         <v>1403215</v>
@@ -21834,12 +21781,12 @@
         <v>1113712</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C146">
         <v>1415391</v>
@@ -21974,12 +21921,12 @@
         <v>1154025</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C147">
         <v>1368163</v>
@@ -22114,12 +22061,12 @@
         <v>1153924</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C148">
         <v>1321457</v>
@@ -22254,12 +22201,12 @@
         <v>1138366</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C149">
         <v>1178991</v>
@@ -22394,12 +22341,12 @@
         <v>1039950</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C150">
         <v>1061474</v>
@@ -22534,12 +22481,12 @@
         <v>969222</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C151">
         <v>772418</v>
@@ -22674,12 +22621,12 @@
         <v>702764</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C152">
         <v>516820</v>
@@ -22814,12 +22761,12 @@
         <v>472471</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C153">
         <v>307074</v>
@@ -22954,12 +22901,12 @@
         <v>279668</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C154">
         <v>153831</v>
@@ -23094,12 +23041,12 @@
         <v>140829</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C155">
         <v>48957</v>
@@ -23234,12 +23181,12 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C156">
         <v>545767</v>
@@ -23374,12 +23321,12 @@
         <v>72670</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C157">
         <v>847987</v>
@@ -23514,12 +23461,12 @@
         <v>235622</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C158">
         <v>1012022</v>
@@ -23654,12 +23601,12 @@
         <v>323421</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C159">
         <v>1125486</v>
@@ -23794,12 +23741,12 @@
         <v>383999</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C160">
         <v>1175091</v>
@@ -23934,12 +23881,12 @@
         <v>428594</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C161">
         <v>1188299</v>
@@ -24074,12 +24021,12 @@
         <v>719436</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C162">
         <v>1204257</v>
@@ -24214,12 +24161,12 @@
         <v>775227</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C163">
         <v>1229329</v>
@@ -24354,12 +24301,12 @@
         <v>809169</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C164">
         <v>1204255</v>
@@ -24494,12 +24441,12 @@
         <v>828119</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C165">
         <v>1073930</v>
@@ -24634,12 +24581,12 @@
         <v>683792</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C166">
         <v>983687</v>
@@ -24774,12 +24721,12 @@
         <v>665841</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C167">
         <v>923834</v>
@@ -24914,12 +24861,12 @@
         <v>710875</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C168">
         <v>681126</v>
@@ -25054,12 +25001,12 @@
         <v>532772</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C169">
         <v>453428</v>
@@ -25194,12 +25141,12 @@
         <v>357609</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C170">
         <v>266252</v>
@@ -25334,12 +25281,12 @@
         <v>210006</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C171">
         <v>133127</v>
@@ -25474,12 +25421,12 @@
         <v>107684</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C172">
         <v>41794</v>
@@ -25614,12 +25561,12 @@
         <v>34651</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C173">
         <v>52912</v>
@@ -25754,12 +25701,12 @@
         <v>52912</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C174">
         <v>158425</v>
@@ -25894,12 +25841,12 @@
         <v>158425</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C175">
         <v>316193</v>
@@ -26034,12 +25981,12 @@
         <v>316193</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C176">
         <v>528443</v>
@@ -26174,12 +26121,12 @@
         <v>528443</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C177">
         <v>773742</v>
@@ -26314,12 +26261,12 @@
         <v>773742</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C178">
         <v>1104991</v>
@@ -26454,12 +26401,12 @@
         <v>1104991</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C179">
         <v>1258176</v>
@@ -26594,12 +26541,12 @@
         <v>1258176</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C180">
         <v>1436654</v>
@@ -26734,12 +26681,12 @@
         <v>1436654</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C181">
         <v>1555639</v>
@@ -26874,12 +26821,12 @@
         <v>1555639</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C182">
         <v>1564528</v>
@@ -27014,12 +26961,12 @@
         <v>1564528</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C183">
         <v>1676716</v>
@@ -27154,12 +27101,12 @@
         <v>1676716</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C184">
         <v>1620207</v>
@@ -27294,12 +27241,12 @@
         <v>1620207</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C185">
         <v>1835020</v>
@@ -27434,12 +27381,12 @@
         <v>1835020</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C186">
         <v>1923691</v>
@@ -27574,12 +27521,12 @@
         <v>1923691</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C187">
         <v>1906536</v>
@@ -27714,12 +27661,12 @@
         <v>1906536</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C188">
         <v>1712304</v>
@@ -27854,12 +27801,12 @@
         <v>1712304</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C189">
         <v>1195782</v>
@@ -27994,12 +27941,12 @@
         <v>1195782</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C190">
         <v>425958</v>
@@ -28134,12 +28081,12 @@
         <v>168998</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C191">
         <v>424129</v>
@@ -28274,12 +28221,12 @@
         <v>154757</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C192">
         <v>615897</v>
@@ -28414,12 +28361,12 @@
         <v>347692</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C193">
         <v>610451</v>
@@ -28554,12 +28501,12 @@
         <v>298786</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C194">
         <v>704794</v>
@@ -28694,12 +28641,12 @@
         <v>417132</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C195">
         <v>705164</v>
@@ -28834,12 +28781,12 @@
         <v>375906</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C196">
         <v>762605</v>
@@ -28974,12 +28921,12 @@
         <v>469737</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C197">
         <v>734889</v>
@@ -29114,12 +29061,12 @@
         <v>433339</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C198">
         <v>770939</v>
@@ -29254,12 +29201,12 @@
         <v>497487</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C199">
         <v>749383</v>
@@ -29394,12 +29341,12 @@
         <v>467558</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C200">
         <v>708801</v>
@@ -29534,12 +29481,12 @@
         <v>554097</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C201">
         <v>693565</v>
@@ -29674,12 +29621,12 @@
         <v>523854</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C202">
         <v>713349</v>
@@ -29814,12 +29761,12 @@
         <v>576666</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C203">
         <v>688459</v>
@@ -29954,12 +29901,12 @@
         <v>536111</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C204">
         <v>721382</v>
@@ -30094,12 +30041,12 @@
         <v>596698</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C205">
         <v>692694</v>
@@ -30234,12 +30181,12 @@
         <v>556366</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C206">
         <v>694076</v>
@@ -30374,12 +30321,12 @@
         <v>591812</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C207">
         <v>672832</v>
@@ -30514,12 +30461,12 @@
         <v>561112</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C208">
         <v>676149</v>
@@ -30654,12 +30601,12 @@
         <v>584183</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C209">
         <v>643762</v>
@@ -30794,12 +30741,12 @@
         <v>552969</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C210">
         <v>605991</v>
@@ -30934,12 +30881,12 @@
         <v>534006</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C211">
         <v>571626</v>
@@ -31074,12 +31021,12 @@
         <v>504816</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C212">
         <v>544179</v>
@@ -31214,12 +31161,12 @@
         <v>495392</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C213">
         <v>516331</v>
@@ -31354,12 +31301,12 @@
         <v>472992</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C214">
         <v>400362</v>
@@ -31494,12 +31441,12 @@
         <v>362745</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C215">
         <v>371476</v>
@@ -31634,12 +31581,12 @@
         <v>339512</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C216">
         <v>278513</v>
@@ -31774,12 +31721,12 @@
         <v>253322</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C217">
         <v>237964</v>
@@ -31914,12 +31861,12 @@
         <v>218861</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C218">
         <v>177283</v>
@@ -32054,12 +32001,12 @@
         <v>161199</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C219">
         <v>129544</v>
@@ -32194,12 +32141,12 @@
         <v>118243</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C220">
         <v>97385</v>
@@ -32334,12 +32281,12 @@
         <v>89216</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C221">
         <v>56295</v>
@@ -32474,12 +32421,12 @@
         <v>51472</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C222">
         <v>35040</v>
@@ -32614,12 +32561,12 @@
         <v>31726</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C223">
         <v>13815</v>
@@ -32754,12 +32701,12 @@
         <v>12391</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C224">
         <v>281031</v>
@@ -32894,12 +32841,12 @@
         <v>41260</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C225">
         <v>264497</v>
@@ -33034,12 +32981,12 @@
         <v>31364</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C226">
         <v>446436</v>
@@ -33174,12 +33121,12 @@
         <v>143859</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C227">
         <v>398446</v>
@@ -33314,12 +33261,12 @@
         <v>90788</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C228">
         <v>524977</v>
@@ -33454,12 +33401,12 @@
         <v>187446</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C229">
         <v>481592</v>
@@ -33594,12 +33541,12 @@
         <v>134086</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C230">
         <v>585162</v>
@@ -33734,12 +33681,12 @@
         <v>212428</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C231">
         <v>536199</v>
@@ -33874,12 +33821,12 @@
         <v>170095</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C232">
         <v>607898</v>
@@ -34014,12 +33961,12 @@
         <v>235401</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C233">
         <v>564978</v>
@@ -34154,12 +34101,12 @@
         <v>192436</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C234">
         <v>610350</v>
@@ -34294,12 +34241,12 @@
         <v>382381</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C235">
         <v>576690</v>
@@ -34434,12 +34381,12 @@
         <v>336533</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C236">
         <v>623363</v>
@@ -34574,12 +34521,12 @@
         <v>415452</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C237">
         <v>580168</v>
@@ -34714,12 +34661,12 @@
         <v>359487</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C238">
         <v>637068</v>
@@ -34854,12 +34801,12 @@
         <v>431678</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C239">
         <v>591538</v>
@@ -34994,12 +34941,12 @@
         <v>377180</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C240">
         <v>619133</v>
@@ -35134,12 +35081,12 @@
         <v>436861</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C241">
         <v>584418</v>
@@ -35274,12 +35221,12 @@
         <v>390898</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C242">
         <v>554886</v>
@@ -35414,12 +35361,12 @@
         <v>358878</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C243">
         <v>518243</v>
@@ -35554,12 +35501,12 @@
         <v>324516</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C244">
         <v>506880</v>
@@ -35694,12 +35641,12 @@
         <v>345001</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C245">
         <v>476040</v>
@@ -35834,12 +35781,12 @@
         <v>320400</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C246">
         <v>472387</v>
@@ -35974,12 +35921,12 @@
         <v>362361</v>
       </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C247">
         <v>450894</v>
@@ -36114,12 +36061,12 @@
         <v>348181</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C248">
         <v>350966</v>
@@ -36254,12 +36201,12 @@
         <v>272261</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C249">
         <v>329829</v>
@@ -36394,12 +36341,12 @@
         <v>260291</v>
       </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:46">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C250">
         <v>242446</v>
@@ -36534,12 +36481,12 @@
         <v>189300</v>
       </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:46">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C251">
         <v>210815</v>
@@ -36674,12 +36621,12 @@
         <v>168190</v>
       </c>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:46">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C252">
         <v>152948</v>
@@ -36814,12 +36761,12 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:46">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C253">
         <v>113187</v>
@@ -36954,12 +36901,12 @@
         <v>89914</v>
       </c>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:46">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C254">
         <v>84328</v>
@@ -37094,12 +37041,12 @@
         <v>68432</v>
       </c>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:46">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C255">
         <v>48722</v>
@@ -37234,12 +37181,12 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:46">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C256">
         <v>30044</v>
@@ -37374,12 +37321,12 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C257">
         <v>11704</v>
@@ -37514,12 +37461,12 @@
         <v>9470</v>
       </c>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C258">
         <v>37186</v>
@@ -37654,12 +37601,12 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C259">
         <v>15726</v>
@@ -37794,12 +37741,12 @@
         <v>15726</v>
       </c>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C260">
         <v>100966</v>
@@ -37934,12 +37881,12 @@
         <v>100966</v>
       </c>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C261">
         <v>57459</v>
@@ -38074,12 +38021,12 @@
         <v>57459</v>
       </c>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C262">
         <v>185170</v>
@@ -38214,12 +38161,12 @@
         <v>185170</v>
       </c>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C263">
         <v>131023</v>
@@ -38354,12 +38301,12 @@
         <v>131023</v>
       </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C264">
         <v>288598</v>
@@ -38494,12 +38441,12 @@
         <v>288598</v>
       </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C265">
         <v>239845</v>
@@ -38634,12 +38581,12 @@
         <v>239845</v>
       </c>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C266">
         <v>402918</v>
@@ -38774,12 +38721,12 @@
         <v>402918</v>
       </c>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C267">
         <v>370824</v>
@@ -38914,12 +38861,12 @@
         <v>370824</v>
       </c>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C268">
         <v>564551</v>
@@ -39054,12 +39001,12 @@
         <v>564551</v>
       </c>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C269">
         <v>540440</v>
@@ -39194,12 +39141,12 @@
         <v>540440</v>
       </c>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C270">
         <v>649391</v>
@@ -39334,12 +39281,12 @@
         <v>649391</v>
       </c>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C271">
         <v>608785</v>
@@ -39474,12 +39421,12 @@
         <v>608785</v>
       </c>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C272">
         <v>739313</v>
@@ -39614,12 +39561,12 @@
         <v>739313</v>
       </c>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:46">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C273">
         <v>697341</v>
@@ -39754,12 +39701,12 @@
         <v>697341</v>
       </c>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:46">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C274">
         <v>759843</v>
@@ -39894,12 +39841,12 @@
         <v>759843</v>
       </c>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:46">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C275">
         <v>795796</v>
@@ -40034,12 +39981,12 @@
         <v>795796</v>
       </c>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:46">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C276">
         <v>763142</v>
@@ -40174,12 +40121,12 @@
         <v>763142</v>
       </c>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:46">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C277">
         <v>801386</v>
@@ -40314,12 +40261,12 @@
         <v>801386</v>
       </c>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:46">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C278">
         <v>825915</v>
@@ -40454,12 +40401,12 @@
         <v>825915</v>
       </c>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:46">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C279">
         <v>850801</v>
@@ -40594,12 +40541,12 @@
         <v>850801</v>
       </c>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:46">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C280">
         <v>805040</v>
@@ -40734,12 +40681,12 @@
         <v>805040</v>
       </c>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:46">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C281">
         <v>815167</v>
@@ -40874,12 +40821,12 @@
         <v>815167</v>
       </c>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:46">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C282">
         <v>908843</v>
@@ -41014,12 +40961,12 @@
         <v>908843</v>
       </c>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:46">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C283">
         <v>926177</v>
@@ -41154,12 +41101,12 @@
         <v>926177</v>
       </c>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:46">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C284">
         <v>948579</v>
@@ -41294,12 +41241,12 @@
         <v>948579</v>
       </c>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:46">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C285">
         <v>975112</v>
@@ -41434,12 +41381,12 @@
         <v>975112</v>
       </c>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:46">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C286">
         <v>960828</v>
@@ -41574,12 +41521,12 @@
         <v>960828</v>
       </c>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:46">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C287">
         <v>945708</v>
@@ -41714,12 +41661,12 @@
         <v>945708</v>
       </c>
     </row>
-    <row r="288" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:46">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C288">
         <v>832344</v>
@@ -41854,12 +41801,12 @@
         <v>832344</v>
       </c>
     </row>
-    <row r="289" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:46">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C289">
         <v>879960</v>
@@ -41994,12 +41941,12 @@
         <v>879960</v>
       </c>
     </row>
-    <row r="290" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:46">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C290">
         <v>580786</v>
@@ -42134,12 +42081,12 @@
         <v>580786</v>
       </c>
     </row>
-    <row r="291" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:46">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C291">
         <v>614996</v>
@@ -42274,12 +42221,12 @@
         <v>614996</v>
       </c>
     </row>
-    <row r="292" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:46">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C292">
         <v>19693</v>
@@ -42318,12 +42265,12 @@
         <v>19693</v>
       </c>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:46">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C293">
         <v>390330</v>
@@ -42362,12 +42309,12 @@
         <v>390330</v>
       </c>
     </row>
-    <row r="294" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:46">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C294">
         <v>13060</v>
@@ -42406,12 +42353,12 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="295" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:46">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C295">
         <v>270146</v>
@@ -42450,12 +42397,12 @@
         <v>270146</v>
       </c>
     </row>
-    <row r="296" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:46">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C296">
         <v>82747</v>
@@ -42494,12 +42441,12 @@
         <v>82747</v>
       </c>
     </row>
-    <row r="297" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:46">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C297">
         <v>26308</v>
@@ -42538,12 +42485,12 @@
         <v>26308</v>
       </c>
     </row>
-    <row r="298" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:46">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C298">
         <v>308611</v>
@@ -42582,12 +42529,12 @@
         <v>308611</v>
       </c>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:46">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C299">
         <v>132869</v>
@@ -42626,12 +42573,12 @@
         <v>132869</v>
       </c>
     </row>
-    <row r="300" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:46">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C300">
         <v>1243990</v>
@@ -42670,12 +42617,12 @@
         <v>1243990</v>
       </c>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:46">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C301">
         <v>18447</v>
@@ -42714,12 +42661,12 @@
         <v>15894</v>
       </c>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:46">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C302">
         <v>291938</v>
@@ -42758,12 +42705,12 @@
         <v>246901</v>
       </c>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:46">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C303">
         <v>5339</v>
@@ -42802,12 +42749,12 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="304" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:46">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C304">
         <v>104340</v>
@@ -42846,12 +42793,12 @@
         <v>82129</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C305">
         <v>28873</v>
@@ -42890,12 +42837,12 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C306">
         <v>10652</v>
@@ -42934,12 +42881,12 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C307">
         <v>222688</v>
@@ -42978,12 +42925,12 @@
         <v>181506</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C308">
         <v>43277</v>
@@ -43022,12 +42969,12 @@
         <v>30104</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C309">
         <v>5972</v>
@@ -43066,12 +43013,12 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C310">
         <v>137776</v>
@@ -43110,12 +43057,12 @@
         <v>36775</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C311">
         <v>2945</v>
@@ -43154,12 +43101,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C312">
         <v>37937</v>
@@ -43198,12 +43145,12 @@
         <v>9469</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C313">
         <v>7175</v>
@@ -43242,12 +43189,12 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C314">
         <v>2358</v>
@@ -43286,12 +43233,12 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C315">
         <v>66250</v>
@@ -43330,12 +43277,12 @@
         <v>11269</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C316">
         <v>9053</v>
@@ -43374,12 +43321,12 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C317">
         <v>1243990</v>
@@ -43418,12 +43365,12 @@
         <v>1243990</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C318">
         <v>359292</v>
@@ -43462,12 +43409,12 @@
         <v>290269</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C319">
         <v>370433</v>
@@ -43506,12 +43453,12 @@
         <v>298962</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C320">
         <v>133321</v>
@@ -43550,12 +43497,12 @@
         <v>31657</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C321">
         <v>137378</v>
@@ -43594,12 +43541,12 @@
         <v>33301</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C322">
         <v>605073</v>
@@ -43638,12 +43585,12 @@
         <v>605073</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C323">
         <v>638917</v>
@@ -43682,12 +43629,12 @@
         <v>638917</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C324">
         <v>729967</v>
@@ -43726,12 +43673,12 @@
         <v>589444</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C325">
         <v>270748</v>
